--- a/artfynd/A 29088-2023.xlsx
+++ b/artfynd/A 29088-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,6 +1263,127 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112182733</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>760</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Lomträsk, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>715207.9695921363</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7303647.390502339</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29088-2023.xlsx
+++ b/artfynd/A 29088-2023.xlsx
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>715207.9695921363</v>
+        <v>715208</v>
       </c>
       <c r="R7" t="n">
-        <v>7303647.390502339</v>
+        <v>7303647</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1342,19 +1342,9 @@
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-06-13</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">

--- a/artfynd/A 29088-2023.xlsx
+++ b/artfynd/A 29088-2023.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16886230</v>
+        <v>16886237</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4600 m VNV Rättsel, Pi lm</t>
+          <t>5000 m ONO Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>715507.820103948</v>
+        <v>715173.0678290944</v>
       </c>
       <c r="R3" t="n">
-        <v>7303055.784946635</v>
+        <v>7303711.121347378</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16886237</v>
+        <v>16886231</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,34 +930,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>5000 m ONO Lomträsk, Pi lm</t>
+          <t>4900 m VNV Rättsel, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>715173.0678290944</v>
+        <v>715414.9551620145</v>
       </c>
       <c r="R4" t="n">
-        <v>7303711.121347378</v>
+        <v>7303369.076640686</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16886231</v>
+        <v>16886236</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>89952</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,38 +1043,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4900 m VNV Rättsel, Pi lm</t>
+          <t>5000 m ONO Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>715414.9551620145</v>
+        <v>715180.9958000439</v>
       </c>
       <c r="R5" t="n">
-        <v>7303369.076640686</v>
+        <v>7303698.940930877</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16886236</v>
+        <v>112182733</v>
       </c>
       <c r="B6" t="n">
-        <v>89952</v>
+        <v>90099</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,20 +1181,24 @@
           <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5000 m ONO Lomträsk, Pi lm</t>
+          <t>Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>715180.9958000439</v>
+        <v>715208</v>
       </c>
       <c r="R6" t="n">
-        <v>7303698.940930877</v>
+        <v>7303647</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,27 +1222,17 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1253,22 +1247,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112182733</v>
+        <v>16886230</v>
       </c>
       <c r="B7" t="n">
-        <v>89965</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,45 +1271,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lomträsk, Pi lm</t>
+          <t>4600 m VNV Rättsel, Pi lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>715208</v>
+        <v>715507.820103948</v>
       </c>
       <c r="R7" t="n">
-        <v>7303647</v>
+        <v>7303055.784946635</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1339,17 +1329,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1364,12 +1364,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>

--- a/artfynd/A 29088-2023.xlsx
+++ b/artfynd/A 29088-2023.xlsx
@@ -1151,7 +1151,7 @@
         <v>112182733</v>
       </c>
       <c r="B6" t="n">
-        <v>90099</v>
+        <v>90113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 29088-2023.xlsx
+++ b/artfynd/A 29088-2023.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16886237</v>
+        <v>16886230</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>5000 m ONO Lomträsk, Pi lm</t>
+          <t>4600 m VNV Rättsel, Pi lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>715173.0678290944</v>
+        <v>715507.820103948</v>
       </c>
       <c r="R3" t="n">
-        <v>7303711.121347378</v>
+        <v>7303055.784946635</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16886231</v>
+        <v>16886237</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,34 +930,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4900 m VNV Rättsel, Pi lm</t>
+          <t>5000 m ONO Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>715414.9551620145</v>
+        <v>715173.0678290944</v>
       </c>
       <c r="R4" t="n">
-        <v>7303369.076640686</v>
+        <v>7303711.121347378</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16886236</v>
+        <v>16886231</v>
       </c>
       <c r="B5" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,38 +1043,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5000 m ONO Lomträsk, Pi lm</t>
+          <t>4900 m VNV Rättsel, Pi lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>715180.9958000439</v>
+        <v>715414.9551620145</v>
       </c>
       <c r="R5" t="n">
-        <v>7303698.940930877</v>
+        <v>7303369.076640686</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112182733</v>
+        <v>16886236</v>
       </c>
       <c r="B6" t="n">
-        <v>90113</v>
+        <v>89952</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1181,24 +1181,20 @@
           <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lomträsk, Pi lm</t>
+          <t>5000 m ONO Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>715208</v>
+        <v>715180.9958000439</v>
       </c>
       <c r="R6" t="n">
-        <v>7303647</v>
+        <v>7303698.940930877</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1222,17 +1218,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2014-08-14</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1247,22 +1253,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Sveaskog genom Johan Ekenstedt</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16886230</v>
+        <v>112182733</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>90113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,41 +1277,45 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4600 m VNV Rättsel, Pi lm</t>
+          <t>Lomträsk, Pi lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>715507.820103948</v>
+        <v>715208</v>
       </c>
       <c r="R7" t="n">
-        <v>7303055.784946635</v>
+        <v>7303647</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1329,27 +1339,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-08-14</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1364,12 +1364,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sveaskog genom Johan Ekenstedt</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
